--- a/API명세서/2019_신한금융그룹_해커톤_API_명세서.xlsx
+++ b/API명세서/2019_신한금융그룹_해커톤_API_명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duckhwanpark/Documents/0. 업무용/2. API외/2019 해커톤/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duckhwanpark/Hackathon/API명세서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11CED0-C600-8845-A861-EF6138CCE08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0ADD6-51AD-E848-8F5C-0471D9295BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="3" xr2:uid="{A7E21E3F-0B60-684C-B343-742A34E416AA}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="51200" windowHeight="21140" xr2:uid="{A7E21E3F-0B60-684C-B343-742A34E416AA}"/>
   </bookViews>
   <sheets>
     <sheet name="신한은행" sheetId="1" r:id="rId1"/>
@@ -20687,7 +20687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20753,14 +20753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -20809,7 +20801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -21156,32 +21148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -21259,20 +21225,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -21341,33 +21439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21422,34 +21493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21530,19 +21580,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21551,55 +21694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21608,17 +21709,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21936,8 +22082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13971902-8261-084A-8396-34F1A3CC0016}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -21949,953 +22095,953 @@
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="43.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="15" customWidth="1"/>
     <col min="11" max="13" width="43.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="11" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="19" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="26"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="92"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="17"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:14" ht="19" thickBot="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="409.6">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="361">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="41" customFormat="1" ht="285">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="2:14" s="31" customFormat="1" ht="285">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="409.6">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="398">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="409.6">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="409.6">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="409.6">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="409.6">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="409.6">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="409.6">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="19" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="409.6">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="19" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="409.6">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="409.6">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="19" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="304">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="409.6">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="409.6">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="409.6">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="409.6">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="19" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="409.6">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="41" customFormat="1" ht="409.6" thickBot="1">
-      <c r="B25" s="42" t="s">
+    <row r="25" spans="2:14" s="31" customFormat="1" ht="409.6" thickBot="1">
+      <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="45" t="s">
+      <c r="M25" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="37" t="s">
         <v>682</v>
       </c>
     </row>
@@ -22921,8 +23067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21965409-B352-0D4F-AAC4-C544EDC0E628}">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A34" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -22942,1334 +23088,1334 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:15" ht="19" customHeight="1">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="54"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="54"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="2:15" ht="19" thickBot="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="2:15" ht="304">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="54"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15" ht="313">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="56" t="s">
         <v>676</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="59" t="s">
         <v>725</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="2:15" ht="409.6">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="59" t="s">
         <v>726</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="54"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="2:15" ht="209">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="56" t="s">
         <v>635</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="59" t="s">
         <v>727</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="42"/>
     </row>
-    <row r="9" spans="2:15" s="23" customFormat="1" ht="195">
-      <c r="B9" s="71" t="s">
+    <row r="9" spans="2:15" s="22" customFormat="1" ht="195">
+      <c r="B9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="59" t="s">
         <v>728</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="61" t="s">
         <v>494</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="2:15" ht="409.6">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="56" t="s">
         <v>637</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="61" t="s">
         <v>683</v>
       </c>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="71" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="361">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="56" t="s">
         <v>638</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="O11" s="90" t="s">
+      <c r="O11" s="71" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="409.6">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="56" t="s">
         <v>639</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="59" t="s">
         <v>731</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="O12" s="54"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="2:15" ht="409.6">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="N13" s="78" t="s">
+      <c r="N13" s="61" t="s">
         <v>732</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14" spans="2:15" ht="271">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="59" t="s">
         <v>731</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="61" t="s">
         <v>733</v>
       </c>
-      <c r="O14" s="54"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="2:15" ht="285">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="N15" s="78" t="s">
+      <c r="N15" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="O15" s="54"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="2:15" ht="209">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="O16" s="54"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="2:15" ht="218">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="J17" s="76" t="s">
+      <c r="J17" s="59" t="s">
         <v>734</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="O17" s="54"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="2:15" ht="332">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="56" t="s">
         <v>645</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="O18" s="54"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="2:15" ht="209">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="56" t="s">
         <v>646</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="N19" s="78" t="s">
+      <c r="N19" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="O19" s="54"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="2:15" ht="209">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="56" t="s">
         <v>647</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="O20" s="54"/>
+      <c r="O20" s="42"/>
     </row>
-    <row r="21" spans="2:15" s="23" customFormat="1" ht="409.6">
-      <c r="B21" s="71" t="s">
+    <row r="21" spans="2:15" s="22" customFormat="1" ht="409.6">
+      <c r="B21" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="38" t="s">
         <v>737</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="J21" s="59" t="s">
         <v>738</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="N21" s="78" t="s">
+      <c r="N21" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="O21" s="54"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="2:15" ht="409.6">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="56" t="s">
         <v>648</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="N22" s="78" t="s">
+      <c r="N22" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="O22" s="54"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:15" ht="380">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="56" t="s">
         <v>649</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="N23" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="O23" s="54"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:15" ht="409.6">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="56" t="s">
         <v>650</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="J24" s="76" t="s">
+      <c r="J24" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="O24" s="54"/>
+      <c r="O24" s="42"/>
     </row>
     <row r="25" spans="2:15" ht="409.6">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="58" t="s">
         <v>687</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="58" t="s">
         <v>686</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="N25" s="78" t="s">
+      <c r="N25" s="61" t="s">
         <v>532</v>
       </c>
-      <c r="O25" s="54"/>
+      <c r="O25" s="42"/>
     </row>
     <row r="26" spans="2:15" ht="323">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="56" t="s">
         <v>652</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="N26" s="78" t="s">
+      <c r="N26" s="61" t="s">
         <v>536</v>
       </c>
-      <c r="O26" s="54"/>
+      <c r="O26" s="42"/>
     </row>
     <row r="27" spans="2:15" ht="323">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="O27" s="54"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="2:15" ht="409.6">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="56" t="s">
         <v>654</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="J28" s="76" t="s">
+      <c r="J28" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="58" t="s">
         <v>543</v>
       </c>
-      <c r="N28" s="78" t="s">
+      <c r="N28" s="61" t="s">
         <v>544</v>
       </c>
-      <c r="O28" s="54"/>
+      <c r="O28" s="42"/>
     </row>
     <row r="29" spans="2:15" ht="361">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="56" t="s">
         <v>655</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="59" t="s">
         <v>546</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="N29" s="78" t="s">
+      <c r="N29" s="61" t="s">
         <v>548</v>
       </c>
-      <c r="O29" s="54"/>
+      <c r="O29" s="42"/>
     </row>
     <row r="30" spans="2:15" ht="304">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="56" t="s">
         <v>656</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J30" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="N30" s="78" t="s">
+      <c r="N30" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="O30" s="54"/>
+      <c r="O30" s="42"/>
     </row>
     <row r="31" spans="2:15" ht="409.6">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="56" t="s">
         <v>657</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="74" t="s">
+      <c r="H31" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="J31" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M31" s="75" t="s">
+      <c r="M31" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="N31" s="78" t="s">
+      <c r="N31" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="O31" s="54"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="2:15" ht="409.6">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="56" t="s">
         <v>658</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="74" t="s">
+      <c r="H32" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="58" t="s">
         <v>557</v>
       </c>
-      <c r="J32" s="76" t="s">
+      <c r="J32" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M32" s="75" t="s">
+      <c r="M32" s="58" t="s">
         <v>559</v>
       </c>
-      <c r="N32" s="78" t="s">
+      <c r="N32" s="61" t="s">
         <v>560</v>
       </c>
-      <c r="O32" s="54"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="2:15" ht="409.6">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="56" t="s">
         <v>659</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="J33" s="76" t="s">
+      <c r="J33" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="N33" s="78" t="s">
+      <c r="N33" s="61" t="s">
         <v>564</v>
       </c>
-      <c r="O33" s="54"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="2:15" ht="409.6">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="56" t="s">
         <v>660</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="J34" s="76" t="s">
+      <c r="J34" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="75" t="s">
+      <c r="M34" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="N34" s="78" t="s">
+      <c r="N34" s="61" t="s">
         <v>568</v>
       </c>
-      <c r="O34" s="54"/>
+      <c r="O34" s="42"/>
     </row>
     <row r="35" spans="2:15" ht="381" thickBot="1">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83" t="s">
+      <c r="C35" s="65"/>
+      <c r="D35" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="66" t="s">
         <v>661</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="85" t="s">
+      <c r="I35" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="J35" s="86" t="s">
+      <c r="J35" s="69" t="s">
         <v>570</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="M35" s="85" t="s">
+      <c r="M35" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="O35" s="54"/>
+      <c r="O35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -24293,8 +24439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9AC827-0C5F-A54E-942E-E738C0FC3730}">
   <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -24315,1643 +24461,1643 @@
   <sheetData>
     <row r="1" spans="2:14" ht="11" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="19" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="93"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="59"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14" ht="19" thickBot="1">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="2:14" ht="409.6">
+      <c r="B5" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B6" s="71" t="s">
+    <row r="6" spans="2:14" ht="409.6">
+      <c r="B6" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="126" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B7" s="71" t="s">
+    <row r="7" spans="2:14" ht="409.6">
+      <c r="B7" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="113" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="114" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="126" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B8" s="71" t="s">
+    <row r="8" spans="2:14" ht="409.6">
+      <c r="B8" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="113" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="114" t="s">
         <v>346</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="126" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="408" customHeight="1" thickBot="1">
-      <c r="B9" s="71" t="s">
+    <row r="9" spans="2:14" ht="408" customHeight="1">
+      <c r="B9" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="114" t="s">
         <v>349</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="117" t="s">
         <v>350</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="114" t="s">
         <v>351</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="126" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B10" s="71" t="s">
+    <row r="10" spans="2:14" ht="409.6">
+      <c r="B10" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="113" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="114" t="s">
         <v>354</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="114" t="s">
         <v>356</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="126" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B11" s="71" t="s">
+    <row r="11" spans="2:14" ht="409.6">
+      <c r="B11" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="113" t="s">
         <v>662</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="126" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="409.6">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="113" t="s">
         <v>663</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="126" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="2:14" ht="409.6">
+      <c r="B13" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="117" t="s">
         <v>739</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="N13" s="78" t="s">
+      <c r="N13" s="126" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B14" s="71" t="s">
+    <row r="14" spans="2:14" ht="409.6">
+      <c r="B14" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="113" t="s">
         <v>664</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="114" t="s">
         <v>366</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="117" t="s">
         <v>367</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="126" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B15" s="71" t="s">
+    <row r="15" spans="2:14" ht="409.6">
+      <c r="B15" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="113" t="s">
         <v>665</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="114" t="s">
         <v>372</v>
       </c>
-      <c r="N15" s="78" t="s">
+      <c r="N15" s="126" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B16" s="71" t="s">
+    <row r="16" spans="2:14" ht="409.6">
+      <c r="B16" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="113" t="s">
         <v>678</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="114" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="114" t="s">
         <v>376</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="126" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B17" s="71" t="s">
+    <row r="17" spans="2:14" ht="409.6">
+      <c r="B17" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="J17" s="117" t="s">
         <v>378</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="114" t="s">
         <v>379</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="126" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B18" s="71" t="s">
+    <row r="18" spans="2:14" ht="409.6">
+      <c r="B18" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="113" t="s">
         <v>671</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="96" t="s">
+      <c r="J18" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="114" t="s">
         <v>382</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="126" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B19" s="71" t="s">
+    <row r="19" spans="2:14" ht="409.6">
+      <c r="B19" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="113" t="s">
         <v>669</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="J19" s="96" t="s">
+      <c r="J19" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="114" t="s">
         <v>386</v>
       </c>
-      <c r="N19" s="78" t="s">
+      <c r="N19" s="126" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B20" s="71" t="s">
+    <row r="20" spans="2:14" ht="409.6">
+      <c r="B20" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="113" t="s">
         <v>670</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="J20" s="96" t="s">
+      <c r="J20" s="117" t="s">
         <v>389</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="126" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B21" s="71" t="s">
+    <row r="21" spans="2:14" ht="409.6">
+      <c r="B21" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="113" t="s">
         <v>392</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="112" t="s">
         <v>688</v>
       </c>
-      <c r="J21" s="96" t="s">
+      <c r="J21" s="117" t="s">
         <v>689</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="114" t="s">
         <v>394</v>
       </c>
-      <c r="N21" s="78" t="s">
+      <c r="N21" s="126" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B22" s="71" t="s">
+    <row r="22" spans="2:14" ht="409.6">
+      <c r="B22" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="113" t="s">
         <v>396</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="J22" s="96" t="s">
+      <c r="J22" s="117" t="s">
         <v>398</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="N22" s="78" t="s">
+      <c r="N22" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B23" s="71" t="s">
+    <row r="23" spans="2:14" ht="409.6">
+      <c r="B23" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="113" t="s">
         <v>401</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="112" t="s">
         <v>688</v>
       </c>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="117" t="s">
         <v>689</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="114" t="s">
         <v>402</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="N23" s="126" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B24" s="71" t="s">
+    <row r="24" spans="2:14" ht="409.6">
+      <c r="B24" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="113" t="s">
         <v>672</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="J24" s="96" t="s">
+      <c r="J24" s="117" t="s">
         <v>405</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="126" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="343" thickBot="1">
-      <c r="B25" s="71" t="s">
+    <row r="25" spans="2:14" ht="342">
+      <c r="B25" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="J25" s="100" t="s">
+      <c r="J25" s="117" t="s">
         <v>410</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="99" t="s">
+      <c r="M25" s="114" t="s">
         <v>411</v>
       </c>
-      <c r="N25" s="101" t="s">
+      <c r="N25" s="126" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B26" s="71" t="s">
+    <row r="26" spans="2:14" ht="409.6">
+      <c r="B26" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="113" t="s">
         <v>679</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="72" t="s">
+      <c r="H26" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="97" t="s">
+      <c r="I26" s="112" t="s">
         <v>413</v>
       </c>
-      <c r="J26" s="100" t="s">
+      <c r="J26" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="99" t="s">
+      <c r="M26" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="N26" s="101" t="s">
+      <c r="N26" s="126" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B27" s="71" t="s">
+    <row r="27" spans="2:14" ht="409.6">
+      <c r="B27" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="97" t="s">
+      <c r="I27" s="112" t="s">
         <v>418</v>
       </c>
-      <c r="J27" s="100" t="s">
+      <c r="J27" s="117" t="s">
         <v>419</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="99" t="s">
+      <c r="M27" s="114" t="s">
         <v>420</v>
       </c>
-      <c r="N27" s="101" t="s">
+      <c r="N27" s="126" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="343" thickBot="1">
-      <c r="B28" s="71" t="s">
+    <row r="28" spans="2:14" ht="342">
+      <c r="B28" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="113" t="s">
         <v>667</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="J28" s="100" t="s">
+      <c r="J28" s="117" t="s">
         <v>423</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="99" t="s">
+      <c r="M28" s="114" t="s">
         <v>424</v>
       </c>
-      <c r="N28" s="101" t="s">
+      <c r="N28" s="126" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="229" thickBot="1">
-      <c r="B29" s="71" t="s">
+    <row r="29" spans="2:14" ht="228">
+      <c r="B29" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="100" t="s">
+      <c r="J29" s="117" t="s">
         <v>393</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="99" t="s">
+      <c r="M29" s="114" t="s">
         <v>427</v>
       </c>
-      <c r="N29" s="101" t="s">
+      <c r="N29" s="126" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B30" s="71" t="s">
+    <row r="30" spans="2:14" ht="409.6">
+      <c r="B30" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="113" t="s">
         <v>668</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="J30" s="100" t="s">
+      <c r="J30" s="117" t="s">
         <v>673</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="99" t="s">
+      <c r="M30" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="N30" s="101" t="s">
+      <c r="N30" s="126" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="191" thickBot="1">
-      <c r="B31" s="71" t="s">
+    <row r="31" spans="2:14" ht="190">
+      <c r="B31" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="113" t="s">
         <v>432</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="114" t="s">
         <v>433</v>
       </c>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="117" t="s">
         <v>434</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="97" t="s">
+      <c r="M31" s="112" t="s">
         <v>435</v>
       </c>
-      <c r="N31" s="101" t="s">
+      <c r="N31" s="126" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="305" thickBot="1">
-      <c r="B32" s="71" t="s">
+    <row r="32" spans="2:14" ht="304">
+      <c r="B32" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C32" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D32" s="113" t="s">
         <v>437</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="114" t="s">
         <v>439</v>
       </c>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="117" t="s">
         <v>440</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="97" t="s">
+      <c r="M32" s="112" t="s">
         <v>441</v>
       </c>
-      <c r="N32" s="101" t="s">
+      <c r="N32" s="126" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B33" s="71" t="s">
+    <row r="33" spans="2:14" ht="409.6">
+      <c r="B33" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="113" t="s">
         <v>443</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="99" t="s">
+      <c r="I33" s="114" t="s">
         <v>444</v>
       </c>
-      <c r="J33" s="100" t="s">
+      <c r="J33" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="99" t="s">
+      <c r="M33" s="114" t="s">
         <v>446</v>
       </c>
-      <c r="N33" s="101" t="s">
+      <c r="N33" s="126" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B34" s="71" t="s">
+    <row r="34" spans="2:14" ht="409.6">
+      <c r="B34" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="114" t="s">
         <v>449</v>
       </c>
-      <c r="J34" s="100" t="s">
+      <c r="J34" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="99" t="s">
+      <c r="M34" s="114" t="s">
         <v>450</v>
       </c>
-      <c r="N34" s="101" t="s">
+      <c r="N34" s="126" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B35" s="71" t="s">
+    <row r="35" spans="2:14" ht="409.6">
+      <c r="B35" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="98" t="s">
+      <c r="D35" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="113" t="s">
         <v>452</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="J35" s="100" t="s">
+      <c r="J35" s="117" t="s">
         <v>454</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="75" t="s">
+      <c r="L35" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="99" t="s">
+      <c r="M35" s="114" t="s">
         <v>455</v>
       </c>
-      <c r="N35" s="101" t="s">
+      <c r="N35" s="126" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B36" s="71" t="s">
+    <row r="36" spans="2:14" ht="409.6">
+      <c r="B36" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="113" t="s">
         <v>457</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="99" t="s">
+      <c r="I36" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="117" t="s">
         <v>459</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="75" t="s">
+      <c r="L36" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="99" t="s">
+      <c r="M36" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="N36" s="101" t="s">
+      <c r="N36" s="126" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B37" s="71" t="s">
+    <row r="37" spans="2:14" ht="409.6">
+      <c r="B37" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="98" t="s">
+      <c r="D37" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="99" t="s">
+      <c r="I37" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="J37" s="100" t="s">
+      <c r="J37" s="117" t="s">
         <v>464</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="99" t="s">
+      <c r="M37" s="114" t="s">
         <v>465</v>
       </c>
-      <c r="N37" s="101" t="s">
+      <c r="N37" s="126" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="343" thickBot="1">
-      <c r="B38" s="71" t="s">
+    <row r="38" spans="2:14" ht="342">
+      <c r="B38" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="113" t="s">
         <v>467</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="99" t="s">
+      <c r="I38" s="114" t="s">
         <v>468</v>
       </c>
-      <c r="J38" s="100" t="s">
+      <c r="J38" s="117" t="s">
         <v>469</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="75" t="s">
+      <c r="L38" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="99" t="s">
+      <c r="M38" s="114" t="s">
         <v>470</v>
       </c>
-      <c r="N38" s="101" t="s">
+      <c r="N38" s="126" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B39" s="71" t="s">
+    <row r="39" spans="2:14" ht="409.6">
+      <c r="B39" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="113" t="s">
         <v>472</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="72" t="s">
+      <c r="H39" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="99" t="s">
+      <c r="I39" s="114" t="s">
         <v>473</v>
       </c>
-      <c r="J39" s="100" t="s">
+      <c r="J39" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="75" t="s">
+      <c r="L39" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="99" t="s">
+      <c r="M39" s="114" t="s">
         <v>475</v>
       </c>
-      <c r="N39" s="101" t="s">
+      <c r="N39" s="126" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B40" s="71" t="s">
+    <row r="40" spans="2:14" ht="409.6">
+      <c r="B40" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="113" t="s">
         <v>477</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="99" t="s">
+      <c r="I40" s="114" t="s">
         <v>478</v>
       </c>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="117" t="s">
         <v>479</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="75" t="s">
+      <c r="L40" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="99" t="s">
+      <c r="M40" s="114" t="s">
         <v>480</v>
       </c>
-      <c r="N40" s="101" t="s">
+      <c r="N40" s="126" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="409.6">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="113" t="s">
         <v>482</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="99" t="s">
+      <c r="I41" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="J41" s="100" t="s">
+      <c r="J41" s="117" t="s">
         <v>484</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="K41" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="75" t="s">
+      <c r="L41" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="99" t="s">
+      <c r="M41" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="N41" s="101" t="s">
+      <c r="N41" s="126" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="409.6" thickBot="1">
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="129" t="s">
         <v>487</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H42" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="102" t="s">
+      <c r="J42" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="85" t="s">
+      <c r="M42" s="131" t="s">
         <v>488</v>
       </c>
-      <c r="N42" s="87" t="s">
+      <c r="N42" s="132" t="s">
         <v>489</v>
       </c>
     </row>
@@ -25977,8 +26123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D620A66-18CA-D148-8D2E-71F965271580}">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A37" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -25997,1516 +26143,1516 @@
   <sheetData>
     <row r="1" spans="2:14" ht="11" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="19" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="93"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58" t="s">
+      <c r="I3" s="101"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="59"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14" ht="19" thickBot="1">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="409.6">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="49" t="s">
         <v>690</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="52" t="s">
         <v>741</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="53" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="409.6">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="N6" s="109" t="s">
+      <c r="N6" s="78" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="409.6">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="74" t="s">
         <v>692</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="107" t="s">
+      <c r="L7" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="109" t="s">
+      <c r="N7" s="78" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="409.6">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="74" t="s">
         <v>693</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="109" t="s">
+      <c r="N8" s="78" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="409.6">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="107" t="s">
+      <c r="L9" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M9" s="107" t="s">
+      <c r="M9" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="109" t="s">
+      <c r="N9" s="78" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="409.6">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="K10" s="104" t="s">
+      <c r="K10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="107" t="s">
+      <c r="L10" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="N10" s="109" t="s">
+      <c r="N10" s="78" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="409.6">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="76" t="s">
         <v>595</v>
       </c>
-      <c r="N11" s="109" t="s">
+      <c r="N11" s="78" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="409.6">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="74" t="s">
         <v>697</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="106" t="s">
+      <c r="H12" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="107" t="s">
+      <c r="L12" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="107" t="s">
+      <c r="M12" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="N12" s="109" t="s">
+      <c r="N12" s="78" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="409.6">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="74" t="s">
         <v>698</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="107" t="s">
+      <c r="L13" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="N13" s="109" t="s">
+      <c r="N13" s="78" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="409.6">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="74" t="s">
         <v>699</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H14" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="107" t="s">
+      <c r="L14" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="107" t="s">
+      <c r="M14" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="N14" s="109" t="s">
+      <c r="N14" s="78" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="409.6">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="74" t="s">
         <v>700</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="106" t="s">
+      <c r="H15" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="107" t="s">
+      <c r="L15" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="78" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="409.6">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="74" t="s">
         <v>701</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="107" t="s">
+      <c r="I16" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="J16" s="108" t="s">
+      <c r="J16" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="107" t="s">
+      <c r="L16" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="107" t="s">
+      <c r="M16" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="N16" s="109" t="s">
+      <c r="N16" s="78" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="409.6">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="74" t="s">
         <v>702</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="106" t="s">
+      <c r="H17" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="107" t="s">
+      <c r="L17" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M17" s="107" t="s">
+      <c r="M17" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="N17" s="109" t="s">
+      <c r="N17" s="78" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="409.6">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="E18" s="105" t="s">
+      <c r="E18" s="74" t="s">
         <v>703</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="106" t="s">
+      <c r="H18" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="107" t="s">
+      <c r="I18" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="107" t="s">
+      <c r="M18" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="N18" s="109" t="s">
+      <c r="N18" s="78" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="409.6">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="74" t="s">
         <v>704</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="106" t="s">
+      <c r="H19" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="107" t="s">
+      <c r="I19" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="78" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="409.6">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="74" t="s">
         <v>706</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="106" t="s">
+      <c r="H20" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="108" t="s">
+      <c r="J20" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="107" t="s">
+      <c r="L20" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M20" s="107" t="s">
+      <c r="M20" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="N20" s="109" t="s">
+      <c r="N20" s="78" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="409.6">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="74" t="s">
         <v>705</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="106" t="s">
+      <c r="H21" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="77" t="s">
         <v>576</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107" t="s">
+      <c r="K21" s="73"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="N21" s="109" t="s">
+      <c r="N21" s="78" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="409.6">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="74" t="s">
         <v>707</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="106" t="s">
+      <c r="H22" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="107" t="s">
+      <c r="I22" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J22" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="K22" s="104" t="s">
+      <c r="K22" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="107" t="s">
+      <c r="L22" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M22" s="107" t="s">
+      <c r="M22" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="N22" s="109" t="s">
+      <c r="N22" s="78" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="409.6">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="74" t="s">
         <v>708</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="106" t="s">
+      <c r="H23" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="J23" s="108" t="s">
+      <c r="J23" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="107" t="s">
+      <c r="L23" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="107" t="s">
+      <c r="M23" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="N23" s="109" t="s">
+      <c r="N23" s="78" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="409.6">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="106" t="s">
+      <c r="H24" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="J24" s="108" t="s">
+      <c r="J24" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="K24" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="107" t="s">
+      <c r="L24" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="N24" s="109" t="s">
+      <c r="N24" s="78" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="409.6">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="74" t="s">
         <v>710</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="107" t="s">
+      <c r="I25" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="J25" s="108" t="s">
+      <c r="J25" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="K25" s="104" t="s">
+      <c r="K25" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="107" t="s">
+      <c r="L25" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="107" t="s">
+      <c r="M25" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="N25" s="109" t="s">
+      <c r="N25" s="78" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="409.6">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="J26" s="108" t="s">
+      <c r="J26" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="K26" s="104" t="s">
+      <c r="K26" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="107" t="s">
+      <c r="L26" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="N26" s="109" t="s">
+      <c r="N26" s="78" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="409.6">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="74" t="s">
         <v>712</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="104" t="s">
+      <c r="G27" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="107" t="s">
+      <c r="I27" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="K27" s="104" t="s">
+      <c r="K27" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="107" t="s">
+      <c r="L27" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M27" s="107" t="s">
+      <c r="M27" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="N27" s="109" t="s">
+      <c r="N27" s="78" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="409.6">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="105" t="s">
+      <c r="D28" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="74" t="s">
         <v>713</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="106" t="s">
+      <c r="H28" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="107" t="s">
+      <c r="I28" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="107" t="s">
+      <c r="L28" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="M28" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="N28" s="109" t="s">
+      <c r="N28" s="78" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="409.6">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="E29" s="74" t="s">
         <v>714</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="106" t="s">
+      <c r="H29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="107" t="s">
+      <c r="L29" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="N29" s="109" t="s">
+      <c r="N29" s="78" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="409.6">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="74" t="s">
         <v>306</v>
       </c>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="74" t="s">
         <v>715</v>
       </c>
-      <c r="F30" s="104" t="s">
+      <c r="F30" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="106" t="s">
+      <c r="H30" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="107" t="s">
+      <c r="I30" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="107" t="s">
+      <c r="L30" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="N30" s="109" t="s">
+      <c r="N30" s="78" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="409.6">
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="74" t="s">
         <v>716</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="106" t="s">
+      <c r="H31" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="107" t="s">
+      <c r="I31" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="107" t="s">
+      <c r="L31" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M31" s="107" t="s">
+      <c r="M31" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="N31" s="109" t="s">
+      <c r="N31" s="78" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="409.6">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="E32" s="105" t="s">
+      <c r="E32" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="106" t="s">
+      <c r="H32" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="107" t="s">
+      <c r="I32" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="107" t="s">
+      <c r="L32" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M32" s="107" t="s">
+      <c r="M32" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="N32" s="109" t="s">
+      <c r="N32" s="78" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="409.6">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="E33" s="105" t="s">
+      <c r="E33" s="74" t="s">
         <v>718</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="104" t="s">
+      <c r="G33" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="106" t="s">
+      <c r="H33" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="107" t="s">
+      <c r="I33" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="108" t="s">
+      <c r="J33" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="107" t="s">
+      <c r="L33" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M33" s="107" t="s">
+      <c r="M33" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="N33" s="109" t="s">
+      <c r="N33" s="78" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="409.6">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="D34" s="105" t="s">
+      <c r="D34" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="74" t="s">
         <v>719</v>
       </c>
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="106" t="s">
+      <c r="H34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="107" t="s">
+      <c r="I34" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="108" t="s">
+      <c r="J34" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="107" t="s">
+      <c r="L34" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M34" s="107" t="s">
+      <c r="M34" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="N34" s="109" t="s">
+      <c r="N34" s="78" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="409.6">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D35" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="74" t="s">
         <v>720</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="106" t="s">
+      <c r="H35" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="J35" s="108" t="s">
+      <c r="J35" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="K35" s="104" t="s">
+      <c r="K35" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M35" s="110" t="s">
+      <c r="M35" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="109" t="s">
+      <c r="N35" s="78" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="409.6">
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="74" t="s">
         <v>721</v>
       </c>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="104" t="s">
+      <c r="G36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="106" t="s">
+      <c r="H36" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="107" t="s">
+      <c r="I36" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="108" t="s">
+      <c r="J36" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="107" t="s">
+      <c r="L36" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M36" s="107" t="s">
+      <c r="M36" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="N36" s="109" t="s">
+      <c r="N36" s="78" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="409.6">
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="105" t="s">
+      <c r="D37" s="74" t="s">
         <v>579</v>
       </c>
-      <c r="E37" s="105" t="s">
+      <c r="E37" s="74" t="s">
         <v>722</v>
       </c>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="104" t="s">
+      <c r="G37" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="106" t="s">
+      <c r="H37" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="107" t="s">
+      <c r="I37" s="76" t="s">
         <v>580</v>
       </c>
-      <c r="J37" s="108" t="s">
+      <c r="J37" s="77" t="s">
         <v>581</v>
       </c>
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="107" t="s">
+      <c r="L37" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="107" t="s">
+      <c r="M37" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="N37" s="109" t="s">
+      <c r="N37" s="78" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="409.6">
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="74" t="s">
         <v>584</v>
       </c>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="74" t="s">
         <v>723</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="106" t="s">
+      <c r="H38" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="K38" s="104" t="s">
+      <c r="K38" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="107" t="s">
+      <c r="L38" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="M38" s="107" t="s">
+      <c r="M38" s="76" t="s">
         <v>585</v>
       </c>
-      <c r="N38" s="109" t="s">
+      <c r="N38" s="78" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="267" thickBot="1">
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="81" t="s">
         <v>604</v>
       </c>
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="82" t="s">
         <v>724</v>
       </c>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="112" t="s">
+      <c r="G39" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="114" t="s">
+      <c r="H39" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="115" t="s">
+      <c r="I39" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="J39" s="116" t="s">
+      <c r="J39" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="K39" s="112" t="s">
+      <c r="K39" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="115" t="s">
+      <c r="L39" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="M39" s="115" t="s">
+      <c r="M39" s="84" t="s">
         <v>607</v>
       </c>
-      <c r="N39" s="117" t="s">
+      <c r="N39" s="86" t="s">
         <v>606</v>
       </c>
     </row>

--- a/API명세서/2019_신한금융그룹_해커톤_API_명세서.xlsx
+++ b/API명세서/2019_신한금융그룹_해커톤_API_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duckhwanpark/Hackathon/API명세서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0ADD6-51AD-E848-8F5C-0471D9295BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8F65D-835F-8E48-8B87-E1BA70431ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="51200" windowHeight="21140" xr2:uid="{A7E21E3F-0B60-684C-B343-742A34E416AA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" xr2:uid="{A7E21E3F-0B60-684C-B343-742A34E416AA}"/>
   </bookViews>
   <sheets>
     <sheet name="신한은행" sheetId="1" r:id="rId1"/>
@@ -22082,8 +22082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13971902-8261-084A-8396-34F1A3CC0016}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
